--- a/Question_Sets/Role-specific skills/Shift Coordination.xlsx
+++ b/Question_Sets/Role-specific skills/Shift Coordination.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As the shift coordinator in a 24/7 call center that mainly handles technical inquiries and customer complaints, you want to optimize customer service efficiency in each shift. You have a team of agents with different expertise, preferences, age, and gender.What is the most important factor in allocating agents to a shift?', 'ques_type': 2, 'options': ['Agents’ expertise', 'Agents’ seniority', 'Agents’ shift preference', 'Agents’ availability'], 'score': 'Agents’ expertise'}, {'title': 'As the shift coordinator at a manufacturing plant, you notice there is a lack of clear communication between shift supervisors. Critical information about machine issues, maintenance, and inventory updates often gets lost or is not conveyed properly, leading to production delays and inefficiency. You want to improve the information flow between shifts.What is the first thing you should do?', 'ques_type': 2, 'options': ['Develop structured communication protocols for shift handovers, specifying key information to be shared and the format for updates.', 'Introduce a digital platform or communication tool to facilitate real-time updates and seamless information sharing between shifts.', 'Foster a collaborative work culture by promoting open communication, idea sharing, and mutual support among team members.', 'Provide immediate training to shift supervisors and team members on the importance of communication.'], 'score': 'Develop structured communication protocols for shift handovers, specifying key information to be shared and the format for updates.'}, {'title': 'You are the shift coordinator at a busy retail store. Several employees have called in sick on short notice, leaving you with a significant staffing shortage for the upcoming shift. At the same time, the store is expecting a higher-than-usual number of customers due to a special promotion. What should your first step be to address this situation?', 'ques_type': 2, 'options': ['Contact other available employees, part-time workers, or those with flexible schedules to see if they can come in to help during the shift.', 'Redistribute tasks among the available staff to maximize efficiency and ensure essential functions are covered.', 'Temporarily close the store during the shift to reorganize and prepare for the next shift.', 'Add yourself to the schedule, helping staff where and when you’re most needed during this busy shift. '], 'score': 'Contact other available employees, part-time workers, or those with flexible schedules to see if they can come in to help during the shift.'}, {'title': 'As a manufacturing supervisor, you notice that two members of your team who previously worked well together are now having frequent disagreements and conflicts. This tension is affecting their productivity and the team’s morale. What is the first action you should take?', 'ques_type': 2, 'options': ['Schedule separate meetings with the team members involved in the conflict, allowing each person to express their concerns to you privately. ', 'Promote bonding by initiating team-building activities that help build trust, strengthen communication, and foster a harmonious work environment.', 'Invite both team members to have a conversation with you acting as a mediator to encourage a respectful dialogue to help them find common ground.', "Assign the team members to different tasks or projects so they don't have to interact with each other directly. "], 'score': 'Schedule separate meetings with the team members involved in the conflict, allowing each person to express their concerns to you privately.'}]</t>
+    <t>questions = [
+    {
+        "title": "As the shift coordinator in a 24/7 call center that mainly handles technical inquiries and customer complaints, you want to optimize customer service efficiency in each shift. You have a team of agents with different expertise, preferences, age, and gender.What is the most important factor in allocating agents to a shift?",
+        "ques_type": 2,
+        "options": [
+            "Agents\u2019 expertise",
+            "Agents\u2019 seniority",
+            "Agents\u2019 shift preference",
+            "Agents\u2019 availability"
+        ],
+        "score": "Agents\u2019 expertise"
+    },
+    {
+        "title": "As the shift coordinator at a manufacturing plant, you notice there is a lack of clear communication between shift supervisors. Critical information about machine issues, maintenance, and inventory updates often gets lost or is not conveyed properly, leading to production delays and inefficiency. You want to improve the information flow between shifts.What is the first thing you should do?",
+        "ques_type": 2,
+        "options": [
+            "Develop structured communication protocols for shift handovers, specifying key information to be shared and the format for updates.",
+            "Introduce a digital platform or communication tool to facilitate real-time updates and seamless information sharing between shifts.",
+            "Foster a collaborative work culture by promoting open communication, idea sharing, and mutual support among team members.",
+            "Provide immediate training to shift supervisors and team members on the importance of communication."
+        ],
+        "score": "Develop structured communication protocols for shift handovers, specifying key information to be shared and the format for updates."
+    },
+    {
+        "title": "You are the shift coordinator at a busy retail store. Several employees have called in sick on short notice, leaving you with a significant staffing shortage for the upcoming shift. At the same time, the store is expecting a higher-than-usual number of customers due to a special promotion. What should your first step be to address this situation?",
+        "ques_type": 2,
+        "options": [
+            "Contact other available employees, part-time workers, or those with flexible schedules to see if they can come in to help during the shift.",
+            "Redistribute tasks among the available staff to maximize efficiency and ensure essential functions are covered.",
+            "Temporarily close the store during the shift to reorganize and prepare for the next shift.",
+            "Add yourself to the schedule, helping staff where and when you\u2019re most needed during this busy shift. "
+        ],
+        "score": "Contact other available employees, part-time workers, or those with flexible schedules to see if they can come in to help during the shift."
+    },
+    {
+        "title": "As a manufacturing supervisor, you notice that two members of your team who previously worked well together are now having frequent disagreements and conflicts. This tension is affecting their productivity and the team\u2019s morale. What is the first action you should take?",
+        "ques_type": 2,
+        "options": [
+            "Schedule separate meetings with the team members involved in the conflict, allowing each person to express their concerns to you privately. ",
+            "Promote bonding by initiating team-building activities that help build trust, strengthen communication, and foster a harmonious work environment.",
+            "Invite both team members to have a conversation with you acting as a mediator to encourage a respectful dialogue to help them find common ground.",
+            "Assign the team members to different tasks or projects so they don't have to interact with each other directly. "
+        ],
+        "score": "Schedule separate meetings with the team members involved in the conflict, allowing each person to express their concerns to you privately."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
